--- a/Excel_for_Diagrams.xlsx
+++ b/Excel_for_Diagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rubik\Desktop\ETH\Sem6\OME\MahjongOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BA6B95-DC4A-4F88-A81D-F622EFFA2C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F84FB03-6EAE-4BFA-A19C-8DB8BAF83A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>AnalyzerType</t>
   </si>
@@ -76,6 +76,9 @@
   <si>
     <t>Naive Algorithm</t>
   </si>
+  <si>
+    <t>DrawAnalyzer Depth2 only 100 Games</t>
+  </si>
 </sst>
 </file>
 
@@ -98,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -229,20 +232,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,10 +287,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -294,7 +329,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -307,7 +342,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-CH" baseline="0"/>
+              <a:rPr lang="de-CH"/>
               <a:t>In what round is ready Hand reached</a:t>
             </a:r>
           </a:p>
@@ -326,7 +361,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -363,7 +398,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -372,8 +407,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -382,6 +417,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -471,7 +507,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -480,8 +516,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -490,6 +526,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -579,7 +616,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -588,8 +625,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -598,6 +635,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -624,7 +662,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -633,34 +671,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,6 +730,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -713,7 +765,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -742,28 +794,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -800,7 +844,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -843,7 +887,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -895,7 +939,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -909,13 +953,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-CH"/>
-              <a:t>Average</a:t>
+              <a:t>Average Shanten  per round</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="de-CH" baseline="0"/>
-              <a:t> Shanten  per round</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-CH"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -932,7 +971,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -944,7 +983,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="de-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -969,7 +1008,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -978,8 +1017,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -988,6 +1027,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1077,7 +1117,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1086,8 +1126,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1096,6 +1136,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1185,7 +1226,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1194,8 +1235,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1204,6 +1245,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1215,31 +1257,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1298,6 +1340,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1319,7 +1375,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1348,28 +1404,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1406,7 +1454,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1449,7 +1497,622 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>In</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-CH" baseline="0"/>
+              <a:t> What Round is Ready Hand reached (Adjusted)</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naive Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$36:$S$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD08-40C5-9C87-758B4E899A6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DrawAnalyzer Depth1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$37:$S$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD08-40C5-9C87-758B4E899A6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DrawAnalyzer Depth2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$38:$S$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD08-40C5-9C87-758B4E899A6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="746640447"/>
+        <c:axId val="746641407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="746640447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746641407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="746641407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746640447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1560,8 +2223,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1572,7 +2275,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1595,18 +2298,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1618,7 +2321,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1626,11 +2329,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1662,35 +2365,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1702,30 +2415,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1747,15 +2464,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1770,10 +2485,46 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -1781,67 +2532,128 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1854,54 +2666,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1911,8 +2686,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1922,66 +2697,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1990,14 +2706,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2011,7 +2727,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -2027,8 +2743,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2044,6 +2760,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2051,20 +2778,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2075,7 +2796,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2098,18 +2819,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -2121,7 +2842,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2129,11 +2850,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -2165,35 +2886,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2205,30 +2936,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2250,15 +2985,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2273,10 +3006,46 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -2284,67 +3053,128 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2357,54 +3187,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2414,8 +3207,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2425,66 +3218,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2493,14 +3227,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2514,7 +3248,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -2530,8 +3264,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2547,6 +3281,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2554,14 +3299,529 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
       <a:ln>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2635,6 +3895,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>43873</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F04D631D-BC67-D8FA-AE01-77DCCFB95158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2906,10 +4202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="54" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="44" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2919,1261 +4215,1231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>54.402655377000002</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="2"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>109</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="2"/>
+      <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>3.0900790363103401E-3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="2"/>
+      <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>1.0008702989999999E-3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>1.18056131131131E-3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>1.4702265651302499E-3</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>1.6561392545090101E-3</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>2.14972556012023E-3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>2.4674556227364201E-3</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>2.8962138801611201E-3</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>2.9602964036326901E-3</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>3.2693219010100998E-3</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>3.7962259195519301E-3</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>4.3764583812949598E-3</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <v>4.1181315202072502E-3</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6">
         <v>5.0344402331932697E-3</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6">
         <v>5.0451249523305102E-3</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6">
         <v>5.22888015236052E-3</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6">
         <v>6.0391224359255102E-3</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>2.93222826111111E-3</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>4</v>
       </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
         <v>2</v>
       </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
         <v>8</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>9</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>8</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>13</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <v>8</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <v>12</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="2">
         <v>19</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="2">
         <v>13</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="A10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>5661.1736297030002</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="2"/>
+      <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>196</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="2"/>
+      <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>0.307255558584349</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="2"/>
+      <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>1.1606542E-5</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>2.5187586782000001E-2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>4.3544011282999999E-2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>8.0481376313999903E-2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>0.11459674065865801</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>0.159969328304609</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>0.21706133961306501</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>0.26701722265080902</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>0.32887409530223</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14">
         <v>0.38456912244535202</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14">
         <v>0.436775024846073</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
         <v>0.45172214223719898</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14">
         <v>0.49916839471413399</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14">
         <v>0.50590966639285695</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14">
         <v>0.53749253104129502</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14">
         <v>0.56738022218949802</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14">
         <v>0.62565848977922001</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="1">
         <v>0.28518115342227601</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
         <v>3</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>7</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>2</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>7</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>11</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <v>11</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>16</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="2">
         <v>17</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <v>28</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <v>20</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="2">
         <v>29</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="2">
         <v>30</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="11"/>
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="12"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="2"/>
+      <c r="A18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>19402.213758235001</v>
+      </c>
+      <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="2"/>
+      <c r="B19">
+        <v>29</v>
+      </c>
+      <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="2"/>
+      <c r="B20">
+        <v>11.696035848611</v>
+      </c>
+      <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="2"/>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="2"/>
+      <c r="B22">
+        <v>3.1615634999999998E-3</v>
+      </c>
+      <c r="C22">
+        <v>0.83298127977999903</v>
+      </c>
+      <c r="D22">
+        <v>1.77464750335</v>
+      </c>
+      <c r="E22">
+        <v>2.5691235966299901</v>
+      </c>
+      <c r="F22">
+        <v>4.7682480867299999</v>
+      </c>
+      <c r="G22">
+        <v>7.8064294625099997</v>
+      </c>
+      <c r="H22">
+        <v>9.9986361444040295</v>
+      </c>
+      <c r="I22">
+        <v>13.368844636494901</v>
+      </c>
+      <c r="J22">
+        <v>13.789354880232301</v>
+      </c>
+      <c r="K22">
+        <v>16.893127268612201</v>
+      </c>
+      <c r="L22">
+        <v>16.7270868450215</v>
+      </c>
+      <c r="M22">
+        <v>19.914042836010701</v>
+      </c>
+      <c r="N22">
+        <v>19.6917050157174</v>
+      </c>
+      <c r="O22">
+        <v>22.9336304293555</v>
+      </c>
+      <c r="P22">
+        <v>27.5460804943522</v>
+      </c>
+      <c r="Q22">
+        <v>18.665168047621901</v>
+      </c>
+      <c r="R22">
+        <v>12.842402104460501</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.40397508021621598</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="4"/>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>5</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2</v>
+      </c>
+      <c r="O23" s="2">
+        <v>2</v>
+      </c>
+      <c r="P23" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>6</v>
+      </c>
+      <c r="R23" s="2">
+        <v>2</v>
+      </c>
+      <c r="S23" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="8">
         <f>B5</f>
         <v>3</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="8">
         <f t="shared" ref="C25:S25" si="0">C5</f>
         <v>3</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="Q25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S25" s="13">
+      <c r="S25" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <f>B13</f>
         <v>3</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <f t="shared" ref="C26:S26" si="1">C13</f>
         <v>2</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <f>B21</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2">
         <f t="shared" ref="C27:S27" si="2">C21</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S27" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="8">
         <f>B7</f>
         <v>0</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="8">
         <f t="shared" ref="C29:S29" si="3">C7</f>
         <v>1</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="8">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="8">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="8">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="8">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="8">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="8">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29" s="8">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="8">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="Q29" s="12">
+      <c r="Q29" s="8">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="R29" s="12">
+      <c r="R29" s="8">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="S29" s="13">
+      <c r="S29" s="9">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <f>B15</f>
         <v>0</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <f t="shared" ref="C30:S30" si="4">C15</f>
         <v>0</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <f>B23</f>
         <v>0</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <f t="shared" ref="C31:S31" si="5">C23</f>
         <v>0</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="3">
+        <v>5</v>
+      </c>
+      <c r="L31" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
+        <v>2</v>
+      </c>
+      <c r="O31" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
+        <v>2</v>
+      </c>
+      <c r="P31" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="3">
+        <v>6</v>
+      </c>
+      <c r="R31" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="4">
+        <v>2</v>
+      </c>
+      <c r="S31" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="14" t="e">
+      <c r="B33" t="e">
         <f>B14/B6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33">
         <f t="shared" ref="C33:S33" si="6">C14/C6</f>
         <v>25.165685111413225</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33">
         <f t="shared" si="6"/>
         <v>36.884159141750487</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33">
         <f t="shared" si="6"/>
         <v>54.740798610770526</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33">
         <f t="shared" si="6"/>
         <v>69.195111671108904</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33">
         <f t="shared" si="6"/>
         <v>74.413837408930576</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33">
         <f t="shared" si="6"/>
         <v>87.969703533043869</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33">
         <f t="shared" si="6"/>
         <v>92.195270687658777</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33">
         <f t="shared" si="6"/>
         <v>111.09498862973868</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33">
         <f t="shared" si="6"/>
         <v>117.62962904525686</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33">
         <f t="shared" si="6"/>
         <v>115.05506629532357</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33">
         <f t="shared" si="6"/>
         <v>103.21636878071669</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33">
         <f t="shared" si="6"/>
         <v>121.21234891716443</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O33">
         <f t="shared" si="6"/>
         <v>100.48975515833388</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33">
         <f t="shared" si="6"/>
         <v>106.53701070238299</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q33">
         <f t="shared" si="6"/>
         <v>108.50893607369457</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33">
         <f t="shared" si="6"/>
         <v>103.60089506669131</v>
       </c>
-      <c r="S33" s="14">
+      <c r="S33">
         <f t="shared" si="6"/>
         <v>97.257487489808256</v>
       </c>
-      <c r="T33" s="14">
+      <c r="T33">
         <f>AVERAGE(C33:S33)</f>
         <v>89.715708960222784</v>
       </c>
@@ -4188,75 +5454,306 @@
       </c>
       <c r="C34">
         <f t="shared" ref="C34:S34" si="7">C22/C6</f>
-        <v>0</v>
+        <v>832.25696737355088</v>
       </c>
       <c r="D34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1503.2234974554672</v>
       </c>
       <c r="E34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1747.4338020836856</v>
       </c>
       <c r="F34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2879.134754971813</v>
       </c>
       <c r="G34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3631.3609547785259</v>
       </c>
       <c r="H34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4052.2050537693135</v>
       </c>
       <c r="I34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4615.9728492673248</v>
       </c>
       <c r="J34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4658.0993927874488</v>
       </c>
       <c r="K34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5167.1654796038429</v>
       </c>
       <c r="L34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4406.241145678654</v>
       </c>
       <c r="M34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4550.2644149716079</v>
       </c>
       <c r="N34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4781.7086266167598</v>
       </c>
       <c r="O34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4555.3486320382917</v>
       </c>
       <c r="P34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5459.94019070385</v>
       </c>
       <c r="Q34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3569.6301127107909</v>
       </c>
       <c r="R34">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2126.5344825704583</v>
       </c>
       <c r="S34">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="14">
+        <v>137.77067957974648</v>
+      </c>
+      <c r="T34">
         <f>AVERAGE(C34:S34)</f>
-        <v>0</v>
+        <v>3451.4288845271258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="13">
+        <f>B7/10</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="8">
+        <f t="shared" ref="C36:S36" si="8">C7/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="I36" s="8">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="J36" s="8">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="K36" s="8">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="L36" s="8">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="M36" s="8">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="N36" s="8">
+        <f t="shared" si="8"/>
+        <v>1.3</v>
+      </c>
+      <c r="O36" s="8">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="P36" s="8">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q36" s="8">
+        <f t="shared" si="8"/>
+        <v>1.9</v>
+      </c>
+      <c r="R36" s="8">
+        <f t="shared" si="8"/>
+        <v>1.3</v>
+      </c>
+      <c r="S36" s="9">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="14">
+        <f>B15/10</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="15">
+        <f t="shared" ref="C37:S37" si="9">C15/10</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="H37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="I37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L37" s="15">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M37" s="15">
+        <f t="shared" si="9"/>
+        <v>1.6</v>
+      </c>
+      <c r="N37" s="15">
+        <f t="shared" si="9"/>
+        <v>1.7</v>
+      </c>
+      <c r="O37" s="15">
+        <f t="shared" si="9"/>
+        <v>2.8</v>
+      </c>
+      <c r="P37" s="15">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="Q37" s="15">
+        <f t="shared" si="9"/>
+        <v>2.9</v>
+      </c>
+      <c r="R37" s="15">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="16">
+        <f>B23</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" ref="C38:S38" si="10">C23</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="S38" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_for_Diagrams.xlsx
+++ b/Excel_for_Diagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rubik\Desktop\ETH\Sem6\OME\MahjongOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F84FB03-6EAE-4BFA-A19C-8DB8BAF83A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27B7209-AE96-4C15-8232-A66DF4B30064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>AnalyzerType</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Avg Time per Round</t>
-  </si>
-  <si>
-    <t>Round where Ready Hand is reached</t>
   </si>
   <si>
     <t>DrawAnalyzer Depth1</t>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>DrawAnalyzer Depth2 only 100 Games</t>
+  </si>
+  <si>
+    <t>Winning Hand is reached</t>
   </si>
 </sst>
 </file>
@@ -267,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -278,6 +278,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,10 +290,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1598,7 +1600,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="de-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2143,6 +2145,621 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Runtime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-CH" baseline="0"/>
+              <a:t> per round divided by avg runtime of Algo</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naive Algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$40:$S$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32389796093858925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38204890471699404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47578930760481475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53595368760745254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69568627043503584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79850890341065395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93726207198224243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95800022227502146</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0580059158984432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2285206543081673</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4162933471503047</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3326945595295969</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6292270113597365</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6326847608255877</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6921509420691005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.95435856654865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94891691333963113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F318-4647-95DA-80920EDB382D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DrawAnalyzer Depth1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$41:$S$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3.7774880472386075E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1976016635954219E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14171919780271811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26193627443164985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37296881197740306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52063933047022026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70645211632022109</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86903951837703342</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0703601159161655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2516262495533619</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4215366089989476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4701837920149146</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6246033009589973</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6465435767013883</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7493337907953272</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8466068597868461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0362804587226426</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.928156205655713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F318-4647-95DA-80920EDB382D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DrawAnalyzer Depth2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$42:$S$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2.7031068824703213E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1219111377717123E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1517306826278883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21965763698775723</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40768070040553683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66744233375764461</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85487393111841814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.143023568800241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1789767968152987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4443463996921997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4301501005580433</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7026318227620392</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6836221494700661</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9608037053066194</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3551638222469644</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5958542098550887</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0980132303532262</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4539487177118335E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F318-4647-95DA-80920EDB382D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1959897151"/>
+        <c:axId val="1959882751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1959897151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959882751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1959882751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959897151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2263,6 +2880,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -3306,6 +3963,527 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3931,6 +5109,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>113788</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>422217</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>69098</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5FC24AD-BF5C-25E6-27E4-686A0DE0C681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4202,10 +5416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="44" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView tabSelected="1" topLeftCell="U17" zoomScale="76" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4218,26 +5432,26 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="12"/>
+      <c r="B1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="15"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -4386,7 +5600,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -4447,26 +5661,26 @@
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="12"/>
+      <c r="B9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
@@ -4615,7 +5829,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -4676,26 +5890,26 @@
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="12"/>
+      <c r="B17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="15"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
@@ -4844,7 +6058,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -4903,7 +6117,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="8">
         <f>B5</f>
@@ -4980,7 +6194,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <f>B13</f>
@@ -5057,7 +6271,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2">
         <f>B21</f>
@@ -5134,7 +6348,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="8">
         <f>B7</f>
@@ -5211,7 +6425,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <f>B15</f>
@@ -5288,7 +6502,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2">
         <f>B23</f>
@@ -5365,7 +6579,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="e">
         <f>B14/B6</f>
@@ -5446,7 +6660,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" t="e">
         <f>B22/B6</f>
@@ -5527,9 +6741,9 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="13">
+        <v>11</v>
+      </c>
+      <c r="B36" s="10">
         <f>B7/10</f>
         <v>0</v>
       </c>
@@ -5604,73 +6818,73 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="14">
+        <v>6</v>
+      </c>
+      <c r="B37" s="11">
         <f>B15/10</f>
         <v>0</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37">
         <f t="shared" ref="C37:S37" si="9">C15/10</f>
         <v>0</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37">
         <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37">
         <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37">
         <f t="shared" si="9"/>
         <v>0.3</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37">
         <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37">
         <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37">
         <f t="shared" si="9"/>
         <v>0.7</v>
       </c>
-      <c r="K37" s="15">
+      <c r="K37">
         <f t="shared" si="9"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L37" s="15">
+      <c r="L37">
         <f t="shared" si="9"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="M37" s="15">
+      <c r="M37">
         <f t="shared" si="9"/>
         <v>1.6</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N37">
         <f t="shared" si="9"/>
         <v>1.7</v>
       </c>
-      <c r="O37" s="15">
+      <c r="O37">
         <f t="shared" si="9"/>
         <v>2.8</v>
       </c>
-      <c r="P37" s="15">
+      <c r="P37">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="Q37" s="15">
+      <c r="Q37">
         <f t="shared" si="9"/>
         <v>2.9</v>
       </c>
-      <c r="R37" s="15">
+      <c r="R37">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
@@ -5681,9 +6895,9 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="16">
+        <v>8</v>
+      </c>
+      <c r="B38" s="12">
         <f>B23</f>
         <v>0</v>
       </c>
@@ -5754,6 +6968,237 @@
       <c r="S38" s="3">
         <f t="shared" si="10"/>
         <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="10">
+        <f>B6/B4</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="8">
+        <f>C6/B4</f>
+        <v>0.32389796093858925</v>
+      </c>
+      <c r="D40" s="10">
+        <f>D6/B4</f>
+        <v>0.38204890471699404</v>
+      </c>
+      <c r="E40" s="8">
+        <f>E6/B4</f>
+        <v>0.47578930760481475</v>
+      </c>
+      <c r="F40" s="10">
+        <f>F6/B4</f>
+        <v>0.53595368760745254</v>
+      </c>
+      <c r="G40" s="8">
+        <f>G6/B4</f>
+        <v>0.69568627043503584</v>
+      </c>
+      <c r="H40" s="10">
+        <f>H6/B4</f>
+        <v>0.79850890341065395</v>
+      </c>
+      <c r="I40" s="8">
+        <f>I6/B4</f>
+        <v>0.93726207198224243</v>
+      </c>
+      <c r="J40" s="10">
+        <f>J6/B4</f>
+        <v>0.95800022227502146</v>
+      </c>
+      <c r="K40" s="8">
+        <f>K6/B4</f>
+        <v>1.0580059158984432</v>
+      </c>
+      <c r="L40" s="10">
+        <f>L6/B4</f>
+        <v>1.2285206543081673</v>
+      </c>
+      <c r="M40" s="8">
+        <f>M6/B4</f>
+        <v>1.4162933471503047</v>
+      </c>
+      <c r="N40" s="10">
+        <f>N6/B4</f>
+        <v>1.3326945595295969</v>
+      </c>
+      <c r="O40" s="8">
+        <f>O6/B4</f>
+        <v>1.6292270113597365</v>
+      </c>
+      <c r="P40" s="10">
+        <f>P6/B4</f>
+        <v>1.6326847608255877</v>
+      </c>
+      <c r="Q40" s="8">
+        <f>Q6/B4</f>
+        <v>1.6921509420691005</v>
+      </c>
+      <c r="R40" s="10">
+        <f>R6/B4</f>
+        <v>1.95435856654865</v>
+      </c>
+      <c r="S40" s="8">
+        <f>S6/B4</f>
+        <v>0.94891691333963113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="16">
+        <f>B14/B12</f>
+        <v>3.7774880472386075E-5</v>
+      </c>
+      <c r="C41" s="17">
+        <f>C14/B12</f>
+        <v>8.1976016635954219E-2</v>
+      </c>
+      <c r="D41" s="17">
+        <f>D14/B12</f>
+        <v>0.14171919780271811</v>
+      </c>
+      <c r="E41" s="17">
+        <f>E14/B12</f>
+        <v>0.26193627443164985</v>
+      </c>
+      <c r="F41" s="17">
+        <f>F14/B12</f>
+        <v>0.37296881197740306</v>
+      </c>
+      <c r="G41" s="17">
+        <f>G14/B12</f>
+        <v>0.52063933047022026</v>
+      </c>
+      <c r="H41" s="17">
+        <f>H14/B12</f>
+        <v>0.70645211632022109</v>
+      </c>
+      <c r="I41" s="17">
+        <f>I14/B12</f>
+        <v>0.86903951837703342</v>
+      </c>
+      <c r="J41" s="17">
+        <f>J14/B12</f>
+        <v>1.0703601159161655</v>
+      </c>
+      <c r="K41" s="17">
+        <f>K14/B12</f>
+        <v>1.2516262495533619</v>
+      </c>
+      <c r="L41" s="17">
+        <f>L14/B12</f>
+        <v>1.4215366089989476</v>
+      </c>
+      <c r="M41" s="17">
+        <f>M14/B12</f>
+        <v>1.4701837920149146</v>
+      </c>
+      <c r="N41" s="17">
+        <f>N14/B12</f>
+        <v>1.6246033009589973</v>
+      </c>
+      <c r="O41" s="17">
+        <f>O14/B12</f>
+        <v>1.6465435767013883</v>
+      </c>
+      <c r="P41" s="17">
+        <f>P14/B12</f>
+        <v>1.7493337907953272</v>
+      </c>
+      <c r="Q41" s="17">
+        <f>Q14/B12</f>
+        <v>1.8466068597868461</v>
+      </c>
+      <c r="R41" s="17">
+        <f>R14/B12</f>
+        <v>2.0362804587226426</v>
+      </c>
+      <c r="S41" s="18">
+        <f>S14/B12</f>
+        <v>0.928156205655713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="12">
+        <f>B22/B20</f>
+        <v>2.7031068824703213E-4</v>
+      </c>
+      <c r="C42" s="2">
+        <f>C22/B20</f>
+        <v>7.1219111377717123E-2</v>
+      </c>
+      <c r="D42" s="2">
+        <f>D22/B20</f>
+        <v>0.1517306826278883</v>
+      </c>
+      <c r="E42" s="2">
+        <f>E22/B20</f>
+        <v>0.21965763698775723</v>
+      </c>
+      <c r="F42" s="2">
+        <f>F22/B20</f>
+        <v>0.40768070040553683</v>
+      </c>
+      <c r="G42" s="2">
+        <f>G22/B20</f>
+        <v>0.66744233375764461</v>
+      </c>
+      <c r="H42" s="2">
+        <f>H22/B20</f>
+        <v>0.85487393111841814</v>
+      </c>
+      <c r="I42" s="2">
+        <f>I22/B20</f>
+        <v>1.143023568800241</v>
+      </c>
+      <c r="J42" s="2">
+        <f>J22/B20</f>
+        <v>1.1789767968152987</v>
+      </c>
+      <c r="K42" s="2">
+        <f>K22/B20</f>
+        <v>1.4443463996921997</v>
+      </c>
+      <c r="L42" s="2">
+        <f>L22/B20</f>
+        <v>1.4301501005580433</v>
+      </c>
+      <c r="M42" s="2">
+        <f>M22/B20</f>
+        <v>1.7026318227620392</v>
+      </c>
+      <c r="N42" s="2">
+        <f>N22/B20</f>
+        <v>1.6836221494700661</v>
+      </c>
+      <c r="O42" s="2">
+        <f>O22/B20</f>
+        <v>1.9608037053066194</v>
+      </c>
+      <c r="P42" s="2">
+        <f>P22/B20</f>
+        <v>2.3551638222469644</v>
+      </c>
+      <c r="Q42" s="2">
+        <f>Q22/B20</f>
+        <v>1.5958542098550887</v>
+      </c>
+      <c r="R42" s="2">
+        <f>R22/B20</f>
+        <v>1.0980132303532262</v>
+      </c>
+      <c r="S42" s="3">
+        <f>S22/B20</f>
+        <v>3.4539487177118335E-2</v>
       </c>
     </row>
   </sheetData>
